--- a/classfiers/nano/svm/nano-svm-default-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9514084507042254</v>
+        <v>0.87458081824279</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.992018779342723</v>
+        <v>0.869215291750503</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97018779342723</v>
+        <v>0.8997652582159624</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8344452680998271</v>
+        <v>0.7769953051643192</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.7431818181818183</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.5858210186040375</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9496120583148011</v>
+        <v>0.884111334674715</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nano-svm-default-results.xlsx
+++ b/classfiers/nano/svm/nano-svm-default-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="E2" t="n">
-        <v>0.87458081824279</v>
+        <v>0.880358111774281</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.869215291750503</v>
+        <v>0.8933803581117743</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.55</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8997652582159624</v>
+        <v>0.911225658648339</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9934551404417781</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7769953051643192</v>
+        <v>0.8095173166075812</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7431818181818183</v>
+        <v>0.7795959595959596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5637426900584794</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5858210186040375</v>
+        <v>0.6093142544374072</v>
       </c>
       <c r="E7" t="n">
-        <v>0.884111334674715</v>
+        <v>0.8975873171167507</v>
       </c>
     </row>
   </sheetData>
